--- a/Lista de Produtos.xlsx
+++ b/Lista de Produtos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erivaldo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erivaldo\Documents\GitHub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE50B806-26A9-48B0-81E0-348B3FA04607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5264EBEE-5B1E-4000-9CD9-F4DDE751B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8C398A61-57B4-4B96-A923-E0EA03272EE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{8C398A61-57B4-4B96-A923-E0EA03272EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Atacadão" sheetId="1" r:id="rId1"/>
+    <sheet name="Gbarbosa" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Lista De Produtos</t>
   </si>
@@ -53,9 +54,6 @@
     <t>Enxaguante bucal</t>
   </si>
   <si>
-    <t>SBP</t>
-  </si>
-  <si>
     <t>Oleo Soya</t>
   </si>
   <si>
@@ -68,9 +66,6 @@
     <t>Sopa</t>
   </si>
   <si>
-    <t>Bombil</t>
-  </si>
-  <si>
     <t>Limpol de pratos</t>
   </si>
   <si>
@@ -81,6 +76,36 @@
   </si>
   <si>
     <t>Sardinha coqueiro</t>
+  </si>
+  <si>
+    <t>Todinho Maratinho</t>
+  </si>
+  <si>
+    <t>Cream craker pilar</t>
+  </si>
+  <si>
+    <t>SBP 380ml</t>
+  </si>
+  <si>
+    <t>Bombril 60g</t>
+  </si>
+  <si>
+    <t>Biscoito treloso 120g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biscoito club social </t>
+  </si>
+  <si>
+    <t>Café Maratá 250g</t>
+  </si>
+  <si>
+    <t>Café Descafeinado 250g</t>
+  </si>
+  <si>
+    <t>Molho de tomate quero</t>
+  </si>
+  <si>
+    <t>Creme dental</t>
   </si>
 </sst>
 </file>
@@ -90,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +125,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -159,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,6 +214,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0F370E-B704-410C-AB6B-702244AB46EC}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +580,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>1.79</v>
@@ -568,15 +604,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
-        <v>17</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>6.05</v>
@@ -584,12 +620,12 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>4.3899999999999997</v>
@@ -597,23 +633,23 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
-        <v>2.65</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>2.15</v>
@@ -621,7 +657,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>5.73</v>
@@ -629,11 +665,339 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>3.99</v>
       </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9685C742-5341-40A0-84F8-93A6F98D41C0}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Lista de Produtos.xlsx
+++ b/Lista de Produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erivaldo\Documents\GitHub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5264EBEE-5B1E-4000-9CD9-F4DDE751B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F7EA2F-A884-46D3-BEF5-C2AD9E7F0535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{8C398A61-57B4-4B96-A923-E0EA03272EE1}"/>
   </bookViews>
@@ -115,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,14 +125,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -215,7 +207,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0F370E-B704-410C-AB6B-702244AB46EC}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,13 +732,13 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>5.73</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -856,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>3.99</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,7 +856,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>1.1200000000000001</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>3.89</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,7 +872,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>1.89</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +880,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>4.49</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -896,7 +888,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4">
-        <v>15.99</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,7 +896,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>10.09</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,7 +904,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4">
-        <v>1.49</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
